--- a/data/trans_dic/P57GLOBAL_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P57GLOBAL_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>64,33; 73,34</t>
+          <t>64,73; 73,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>63,01; 72,51</t>
+          <t>62,88; 72,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>75,22; 83,25</t>
+          <t>74,85; 82,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>53,09; 62,54</t>
+          <t>53,72; 62,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>61,08; 71,97</t>
+          <t>61,36; 72,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>64,1; 75,29</t>
+          <t>64,63; 75,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>75,82; 84,26</t>
+          <t>76,04; 84,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,16; 57,86</t>
+          <t>49,79; 57,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>64,64; 71,23</t>
+          <t>64,89; 71,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>65,12; 72,12</t>
+          <t>65,13; 72,58</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>76,78; 82,59</t>
+          <t>76,64; 82,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>53,12; 59,34</t>
+          <t>53,08; 59,14</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,41; 69,82</t>
+          <t>59,28; 70,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62,45; 72,53</t>
+          <t>62,74; 72,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>72,7; 81,39</t>
+          <t>72,71; 81,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>59,54; 68,97</t>
+          <t>59,31; 69,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>62,97; 72,6</t>
+          <t>63,09; 72,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>68,4; 77,89</t>
+          <t>68,14; 78,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>76,16; 84,6</t>
+          <t>75,2; 84,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>59,78; 68,74</t>
+          <t>60,01; 68,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>62,77; 69,95</t>
+          <t>62,54; 69,49</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>66,64; 73,77</t>
+          <t>66,81; 73,69</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>75,42; 81,71</t>
+          <t>75,35; 81,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>61,18; 67,69</t>
+          <t>60,88; 67,37</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>70,37; 78,02</t>
+          <t>70,91; 78,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>64,45; 72,12</t>
+          <t>64,34; 71,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>83,23; 89,09</t>
+          <t>83,08; 89,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,49; 66,46</t>
+          <t>16,67; 66,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>64,84; 78,06</t>
+          <t>64,41; 78,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>66,52; 78,12</t>
+          <t>66,57; 78,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>81,08; 92,29</t>
+          <t>81,73; 92,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>60,8; 73,09</t>
+          <t>61,85; 73,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>70,46; 77,31</t>
+          <t>70,78; 77,27</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>66,56; 72,9</t>
+          <t>66,37; 72,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>84,21; 89,34</t>
+          <t>84,4; 89,25</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>21,1; 67,12</t>
+          <t>20,62; 67,27</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>70,21; 75,22</t>
+          <t>70,41; 75,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>67,4; 72,87</t>
+          <t>67,36; 73,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>79,8; 84,31</t>
+          <t>79,92; 84,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>62,03; 68,52</t>
+          <t>61,99; 68,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>71,14; 77,68</t>
+          <t>71,33; 77,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>76,7; 82,72</t>
+          <t>76,25; 82,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>83,45; 87,99</t>
+          <t>83,34; 88,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>60,26; 66,48</t>
+          <t>60,29; 66,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>71,51; 75,41</t>
+          <t>71,24; 75,4</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>71,91; 75,95</t>
+          <t>71,72; 75,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>81,91; 85,33</t>
+          <t>81,94; 85,31</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>61,91; 66,77</t>
+          <t>62,16; 66,74</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66,59; 76,47</t>
+          <t>66,76; 76,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>68,89; 76,84</t>
+          <t>68,62; 76,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>80,31; 86,52</t>
+          <t>80,0; 86,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>64,88; 74,25</t>
+          <t>64,91; 73,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>76,01; 82,91</t>
+          <t>76,05; 82,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>73,84; 80,12</t>
+          <t>73,92; 80,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>84,46; 89,39</t>
+          <t>84,45; 89,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>45,07; 71,06</t>
+          <t>45,7; 71,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>73,83; 79,15</t>
+          <t>73,69; 79,37</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>72,9; 77,9</t>
+          <t>72,93; 77,81</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>83,52; 87,33</t>
+          <t>83,7; 87,35</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>50,76; 70,02</t>
+          <t>52,98; 70,69</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>54,0; 65,09</t>
+          <t>54,77; 65,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>55,49; 67,45</t>
+          <t>54,91; 66,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>74,23; 83,8</t>
+          <t>73,91; 83,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>35,32; 56,42</t>
+          <t>34,67; 56,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>67,66; 72,86</t>
+          <t>67,76; 72,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>70,53; 76,06</t>
+          <t>70,5; 75,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>82,28; 86,84</t>
+          <t>82,58; 86,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>61,14; 68,24</t>
+          <t>61,11; 67,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>66,06; 70,69</t>
+          <t>66,02; 70,62</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>68,37; 73,3</t>
+          <t>68,41; 73,26</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>81,61; 85,62</t>
+          <t>81,44; 85,56</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>55,76; 63,52</t>
+          <t>56,03; 63,74</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>68,86; 71,96</t>
+          <t>68,71; 72,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>67,41; 70,53</t>
+          <t>67,03; 70,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>80,5; 83,09</t>
+          <t>80,51; 83,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>44,43; 63,69</t>
+          <t>44,4; 63,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>70,75; 73,66</t>
+          <t>70,66; 73,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>73,78; 76,79</t>
+          <t>73,91; 76,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>83,57; 86,08</t>
+          <t>83,63; 85,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>57,62; 64,6</t>
+          <t>57,34; 64,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>70,24; 72,56</t>
+          <t>70,23; 72,49</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>71,0; 73,21</t>
+          <t>71,09; 73,27</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>82,32; 84,22</t>
+          <t>82,45; 84,3</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>52,02; 63,38</t>
+          <t>51,56; 63,47</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con apoyo social funcional bajo, por encima del percentil 15</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>709</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>324624</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>294653</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>338980</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>289112</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>204645</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>218859</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>275053</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>239022</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>529269</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>513513</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>614033</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>528134</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>304841; 344432</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>273692; 313571</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>320548; 353949</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>266582; 311429</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>187465; 220654</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>200417; 235051</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>259636; 288770</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>220761; 257005</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>503834; 554212</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>485419; 540946</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>589883; 636664</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>498818; 555744</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>702</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>235796</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>282087</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>288578</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>287648</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>252980</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>246497</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>293700</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>243220</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>488776</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>528585</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>582278</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>530867</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>216596; 255759</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>260713; 301532</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>271266; 303476</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>265294; 308976</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>234619; 269667</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>227809; 261706</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>275769; 308132</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>226381; 260048</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>461105; 512306</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>501061; 552658</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>557419; 604267</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>501954; 555518</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>404832</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>424901</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>450651</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>271813</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>119422</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>188105</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>143136</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>111031</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>524254</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>613006</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>593787</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>382845</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>384002; 427043</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>400123; 447510</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>432807; 465084</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>110260; 439104</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>107434; 130102</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>172541; 202221</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>132878; 150422</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>101433; 120567</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>501357; 547307</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>584804; 639542</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>576881; 610044</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>170261; 555366</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1411</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1307</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1572</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1562</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>902251</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>802532</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>933545</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>668244</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>532591</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>607637</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>703506</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>480489</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1434842</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1410169</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1637051</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1148733</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>871915; 933639</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>770179; 836653</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>908337; 959908</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>634948; 703029</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>509512; 556318</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>580082; 628526</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>682805; 721743</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>457497; 502632</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1391052; 1472344</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1365557; 1443468</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1602537; 1668526</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1108349; 1190147</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1097</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1314</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>251988</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>364636</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>512677</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>321933</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>451946</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>579751</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>638204</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>514451</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>703933</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>944388</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1150881</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>836383</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>234040; 267849</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>343381; 382954</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>491523; 530939</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>301616; 343537</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>431775; 469219</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>556036; 603645</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>617599; 654489</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>377033; 585954</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>676737; 728863</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>913570; 974645</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1126402; 1175545</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>683227; 911682</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>863</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>757</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>828</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1046</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>919</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>1042</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>834</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>178976</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>162366</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>226626</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>107709</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>878009</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>805402</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>910426</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>478682</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1056985</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>967768</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1137052</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>586391</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>162861; 193594</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>145507; 177387</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>211527; 239486</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>82465; 133970</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>846174; 910999</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>774834; 831657</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>887293; 933951</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>453101; 503477</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1020756; 1091822</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>933244; 999348</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1108102; 1164146</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>548695; 624158</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2260</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2171</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2620</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2166</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2362</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2447</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2778</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3464</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>5398</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>5630</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2298466</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2331176</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2751056</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1946458</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2439593</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2646252</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2964025</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>2066895</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>4738060</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>4977427</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>5715082</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>4013353</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2242634; 2350022</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2266449; 2387355</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2704659; 2795957</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1479551; 2123840</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2384857; 2491844</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2598414; 2705402</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2923447; 3003523</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1897948; 2145835</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>4662927; 4812851</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>4903252; 5053569</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>5651885; 5778685</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>3424810; 4215593</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P57GLOBAL_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P57GLOBAL_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
